--- a/branches/merging/ValueSet-legalStatusOfSupply.xlsx
+++ b/branches/merging/ValueSet-legalStatusOfSupply.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/100000072051</t>
+    <t>https://spor.ema.europa.eu/lists/100000072051</t>
   </si>
 </sst>
 </file>
